--- a/Code/Results/Cases/Case_4_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.57396319296952</v>
+        <v>17.77300618440172</v>
       </c>
       <c r="C2">
-        <v>14.00500730750892</v>
+        <v>10.21090539943208</v>
       </c>
       <c r="D2">
-        <v>10.31177457313242</v>
+        <v>14.32210881126316</v>
       </c>
       <c r="E2">
-        <v>9.953516924547571</v>
+        <v>15.10668373050767</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>64.68217749270039</v>
+        <v>61.3032098326869</v>
       </c>
       <c r="H2">
-        <v>17.97127535942616</v>
+        <v>21.81531885108973</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.141400981218138</v>
+        <v>8.925410521891838</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.01526665546286</v>
+        <v>20.41769206574797</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.09099329399799</v>
+        <v>17.45964905814496</v>
       </c>
       <c r="C3">
-        <v>12.99389522538631</v>
+        <v>9.935730509800198</v>
       </c>
       <c r="D3">
-        <v>10.00649792614042</v>
+        <v>14.30993514697994</v>
       </c>
       <c r="E3">
-        <v>9.79198346226392</v>
+        <v>15.11845370845852</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.6053203419503</v>
+        <v>60.60837399812401</v>
       </c>
       <c r="H3">
-        <v>17.44035346941402</v>
+        <v>21.75340912045176</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.175388889778241</v>
+        <v>8.942316113811593</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.2582883224546</v>
+        <v>20.34929384773791</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.13629705236911</v>
+        <v>17.27077089761441</v>
       </c>
       <c r="C4">
-        <v>12.3425413654619</v>
+        <v>9.767037600487511</v>
       </c>
       <c r="D4">
-        <v>9.823366084339408</v>
+        <v>14.30536726644407</v>
       </c>
       <c r="E4">
-        <v>9.698758392195598</v>
+        <v>15.12816894143699</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>59.70892635464254</v>
+        <v>60.1932914575972</v>
       </c>
       <c r="H4">
-        <v>17.12265327376717</v>
+        <v>21.71953317597767</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.197530907144242</v>
+        <v>8.95337378833463</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.78967546022569</v>
+        <v>20.31254709294975</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.73598158037618</v>
+        <v>17.19480542642261</v>
       </c>
       <c r="C5">
-        <v>12.06927852721419</v>
+        <v>9.698489044850357</v>
       </c>
       <c r="D5">
-        <v>9.749850545642898</v>
+        <v>14.30423717562784</v>
       </c>
       <c r="E5">
-        <v>9.662227658549071</v>
+        <v>15.1327528477662</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>58.93484196021453</v>
+        <v>60.027197844362</v>
       </c>
       <c r="H5">
-        <v>16.99527322253163</v>
+        <v>21.70677177876887</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.206872384203106</v>
+        <v>8.958050628361086</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.59794547228741</v>
+        <v>20.29890314649385</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66882446669503</v>
+        <v>17.18225546863181</v>
       </c>
       <c r="C6">
-        <v>12.02342618207918</v>
+        <v>9.687122239305198</v>
       </c>
       <c r="D6">
-        <v>9.737711455955122</v>
+        <v>14.30409370059032</v>
       </c>
       <c r="E6">
-        <v>9.656248776424952</v>
+        <v>15.13355171433033</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>58.80624625248314</v>
+        <v>59.99980697753114</v>
       </c>
       <c r="H6">
-        <v>16.97424801034042</v>
+        <v>21.7047158416569</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.208442715335796</v>
+        <v>8.958837537646721</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.56606912700323</v>
+        <v>20.29671822329945</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13094408935359</v>
+        <v>17.26974218131344</v>
       </c>
       <c r="C7">
-        <v>12.33888795008284</v>
+        <v>9.766112167379488</v>
       </c>
       <c r="D7">
-        <v>9.8223700831405</v>
+        <v>14.30534906418524</v>
       </c>
       <c r="E7">
-        <v>9.698259868008952</v>
+        <v>15.1282282327872</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>59.69849119611231</v>
+        <v>60.1910388933179</v>
       </c>
       <c r="H7">
-        <v>17.12092693024115</v>
+        <v>21.71935684383637</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.197655602388043</v>
+        <v>8.953436170003167</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78709253532254</v>
+        <v>20.31235768554026</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.07168859588527</v>
+        <v>17.66430000732038</v>
       </c>
       <c r="C8">
-        <v>13.66261472925591</v>
+        <v>10.11604547394275</v>
       </c>
       <c r="D8">
-        <v>10.20563585975042</v>
+        <v>14.31730840452092</v>
       </c>
       <c r="E8">
-        <v>9.896559998271998</v>
+        <v>15.11022506917242</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>63.62303023808804</v>
+        <v>61.06132656648183</v>
       </c>
       <c r="H8">
-        <v>17.78649064637131</v>
+        <v>21.79311591484332</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.152854592557551</v>
+        <v>8.931099160207616</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.75515760408604</v>
+        <v>20.39302548359972</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.53618218568053</v>
+        <v>18.46080315368326</v>
       </c>
       <c r="C9">
-        <v>16.02390909873116</v>
+        <v>10.7990030673151</v>
       </c>
       <c r="D9">
-        <v>10.99062456778129</v>
+        <v>14.36378954189263</v>
       </c>
       <c r="E9">
-        <v>10.33457272874969</v>
+        <v>15.0946997335977</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.24847046665579</v>
+        <v>62.85260696429496</v>
       </c>
       <c r="H9">
-        <v>19.15817418156596</v>
+        <v>21.97040401039854</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.075198109670439</v>
+        <v>8.892656102707745</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.61706592314799</v>
+        <v>20.5923397006558</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.88815577692736</v>
+        <v>19.05300124764982</v>
       </c>
       <c r="C10">
-        <v>17.62775246824977</v>
+        <v>11.29205890546241</v>
       </c>
       <c r="D10">
-        <v>11.58767073611507</v>
+        <v>14.41190648218751</v>
       </c>
       <c r="E10">
-        <v>10.68932278817173</v>
+        <v>15.0953916201939</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.80477462279016</v>
+        <v>64.21054086203142</v>
       </c>
       <c r="H10">
-        <v>20.20929850917257</v>
+        <v>22.12026163968668</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.024522838422019</v>
+        <v>8.867656722053837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.26114119752063</v>
+        <v>20.76303546693301</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.92005791860725</v>
+        <v>19.32252010933319</v>
       </c>
       <c r="C11">
-        <v>18.33202576650387</v>
+        <v>11.51319792532432</v>
       </c>
       <c r="D11">
-        <v>11.86404606847993</v>
+        <v>14.43680426214941</v>
       </c>
       <c r="E11">
-        <v>10.85867108406939</v>
+        <v>15.09833890839526</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.32642744078797</v>
+        <v>64.83525535811164</v>
       </c>
       <c r="H11">
-        <v>20.69814390973582</v>
+        <v>22.19260791223862</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.002901407977985</v>
+        <v>8.856983643494139</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.03206748807507</v>
+        <v>20.84575419257045</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.30572896369632</v>
+        <v>19.42448565929111</v>
       </c>
       <c r="C12">
-        <v>18.59537306884631</v>
+        <v>11.59638889517166</v>
       </c>
       <c r="D12">
-        <v>11.96944804948108</v>
+        <v>14.44666217844202</v>
       </c>
       <c r="E12">
-        <v>10.92402819236198</v>
+        <v>15.09983361792178</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.28111355890972</v>
+        <v>65.07264105272411</v>
       </c>
       <c r="H12">
-        <v>20.88495173487217</v>
+        <v>22.22059505293245</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.994924727063999</v>
+        <v>8.853042218859981</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.32028781504911</v>
+        <v>20.87778721868203</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22288742649515</v>
+        <v>19.40253154922309</v>
       </c>
       <c r="C13">
-        <v>18.53880014792219</v>
+        <v>11.5784981141007</v>
       </c>
       <c r="D13">
-        <v>11.94671350203762</v>
+        <v>14.44452004360835</v>
       </c>
       <c r="E13">
-        <v>10.90989623111804</v>
+        <v>15.09949486623686</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.07550082272513</v>
+        <v>65.02148226188721</v>
       </c>
       <c r="H13">
-        <v>20.84464097893174</v>
+        <v>22.21454138561998</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.996633176800586</v>
+        <v>8.853886622005989</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.25837423938352</v>
+        <v>20.87085711449946</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.95188689772872</v>
+        <v>19.33091142030124</v>
       </c>
       <c r="C14">
-        <v>18.35375671464844</v>
+        <v>11.52005363112675</v>
       </c>
       <c r="D14">
-        <v>11.87270219656926</v>
+        <v>14.4376066867607</v>
       </c>
       <c r="E14">
-        <v>10.86402289702685</v>
+        <v>15.09845429081955</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.40496953276688</v>
+        <v>64.85476984490765</v>
       </c>
       <c r="H14">
-        <v>20.71347769174133</v>
+        <v>22.19489863930894</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.002240902378487</v>
+        <v>8.856657372976311</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.0558520649076</v>
+        <v>20.8483754712034</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.78524089378681</v>
+        <v>19.28702631873198</v>
       </c>
       <c r="C15">
-        <v>18.23998605771074</v>
+        <v>11.48418041956843</v>
       </c>
       <c r="D15">
-        <v>11.82746730794582</v>
+        <v>14.4334279132058</v>
       </c>
       <c r="E15">
-        <v>10.83608688826017</v>
+        <v>15.09786621710036</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.99424646798082</v>
+        <v>64.75275498307667</v>
       </c>
       <c r="H15">
-        <v>20.63336237578113</v>
+        <v>22.18294358865947</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.005703428174678</v>
+        <v>8.858367582696305</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.93132761351327</v>
+        <v>20.83469657734598</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81998462877568</v>
+        <v>19.03538027117985</v>
       </c>
       <c r="C16">
-        <v>17.58124132806844</v>
+        <v>11.27753508159243</v>
       </c>
       <c r="D16">
-        <v>11.56970938209049</v>
+        <v>14.41033965579413</v>
       </c>
       <c r="E16">
-        <v>10.67842254128324</v>
+        <v>15.09525199235641</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.63990800258108</v>
+        <v>64.16983906314412</v>
       </c>
       <c r="H16">
-        <v>20.17757848567045</v>
+        <v>22.11561689159868</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.025965060114896</v>
+        <v>8.86836827682585</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.21022234015406</v>
+        <v>20.75772994630353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.21834570000983</v>
+        <v>18.8809534281902</v>
       </c>
       <c r="C17">
-        <v>17.17083463475166</v>
+        <v>11.14988600864322</v>
       </c>
       <c r="D17">
-        <v>11.41283913504096</v>
+        <v>14.39694445367375</v>
       </c>
       <c r="E17">
-        <v>10.58379567432899</v>
+        <v>15.09432262121267</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>75.19444911693964</v>
+        <v>63.81389648893955</v>
       </c>
       <c r="H17">
-        <v>19.90080147286039</v>
+        <v>22.07537727946336</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.038764768842481</v>
+        <v>8.874682251919481</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.76089741100949</v>
+        <v>20.71179800409764</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.86869425549719</v>
+        <v>18.79214945713651</v>
       </c>
       <c r="C18">
-        <v>16.93237609398066</v>
+        <v>11.07617393007746</v>
       </c>
       <c r="D18">
-        <v>11.32305606316818</v>
+        <v>14.38952333446425</v>
       </c>
       <c r="E18">
-        <v>10.53011325291499</v>
+        <v>15.09403586591347</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.36244574012835</v>
+        <v>63.60983612190822</v>
       </c>
       <c r="H18">
-        <v>19.74260005025542</v>
+        <v>22.05262613134956</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.046261157532616</v>
+        <v>8.878379720116717</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.49980838902367</v>
+        <v>20.68585747880272</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.74967850609188</v>
+        <v>18.76208862723874</v>
       </c>
       <c r="C19">
-        <v>16.85121698175673</v>
+        <v>11.05116924481091</v>
       </c>
       <c r="D19">
-        <v>11.29273208945766</v>
+        <v>14.38705943835764</v>
       </c>
       <c r="E19">
-        <v>10.51206291827512</v>
+        <v>15.0939813290593</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>74.08062312977586</v>
+        <v>63.5408652036361</v>
       </c>
       <c r="H19">
-        <v>19.68920244965197</v>
+        <v>22.04499085194504</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.048822237792535</v>
+        <v>8.879642936491235</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.41094455389765</v>
+        <v>20.67715718962504</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.2827616845046</v>
+        <v>18.89739137542313</v>
       </c>
       <c r="C20">
-        <v>17.21476986647927</v>
+        <v>11.16350538237288</v>
       </c>
       <c r="D20">
-        <v>11.42949190068938</v>
+        <v>14.39834108072125</v>
       </c>
       <c r="E20">
-        <v>10.59379127354073</v>
+        <v>15.0943959074428</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.34838040425024</v>
+        <v>63.85171934441441</v>
       </c>
       <c r="H20">
-        <v>19.93016107795355</v>
+        <v>22.07962018124222</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.037388280910424</v>
+        <v>8.874003306937798</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.80900093485468</v>
+        <v>20.71663817213086</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.03162109564497</v>
+        <v>19.3519514564508</v>
       </c>
       <c r="C21">
-        <v>18.40819668928493</v>
+        <v>11.53723583168221</v>
       </c>
       <c r="D21">
-        <v>11.89442029947653</v>
+        <v>14.43962567275368</v>
       </c>
       <c r="E21">
-        <v>10.87746292201139</v>
+        <v>15.09874965725395</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>79.60191995859847</v>
+        <v>64.90371653872116</v>
       </c>
       <c r="H21">
-        <v>20.75195607765426</v>
+        <v>22.20065222389637</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.000588008423721</v>
+        <v>8.855840818294286</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.11543586682708</v>
+        <v>20.85495978836286</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14516515846864</v>
+        <v>19.64842769947593</v>
       </c>
       <c r="C22">
-        <v>19.16883845589066</v>
+        <v>11.77824822081053</v>
       </c>
       <c r="D22">
-        <v>12.2026664667925</v>
+        <v>14.4691102337457</v>
       </c>
       <c r="E22">
-        <v>11.07007131368894</v>
+        <v>15.103801970521</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.38114336197631</v>
+        <v>65.59595144236559</v>
       </c>
       <c r="H22">
-        <v>21.29902593307957</v>
+        <v>22.28319455178505</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.97776922939405</v>
+        <v>8.844554706035828</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.9477995692523</v>
+        <v>20.94948503038105</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.55339826179517</v>
+        <v>19.49028427473223</v>
       </c>
       <c r="C23">
-        <v>18.76452919200247</v>
+        <v>11.64994159494557</v>
       </c>
       <c r="D23">
-        <v>12.0377213620887</v>
+        <v>14.45314589672225</v>
       </c>
       <c r="E23">
-        <v>10.96658072968146</v>
+        <v>15.10090354626162</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>80.89759626825936</v>
+        <v>65.22612387820772</v>
       </c>
       <c r="H23">
-        <v>21.00606521847171</v>
+        <v>22.23882860776582</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.98983332654718</v>
+        <v>8.850524972102759</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.50540370034414</v>
+        <v>20.89866455741179</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25365096114308</v>
+        <v>18.88995983910665</v>
       </c>
       <c r="C24">
-        <v>17.19491458886157</v>
+        <v>11.15734906821109</v>
       </c>
       <c r="D24">
-        <v>11.42196193179138</v>
+        <v>14.39770879339201</v>
       </c>
       <c r="E24">
-        <v>10.58927002701855</v>
+        <v>15.09436200367526</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75.27879119724142</v>
+        <v>63.8346178241035</v>
       </c>
       <c r="H24">
-        <v>19.91688474174111</v>
+        <v>22.07770077126133</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.038010162683436</v>
+        <v>8.874310047755612</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.7872619699234</v>
+        <v>20.71444847808503</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.63409400404509</v>
+        <v>18.243607671195</v>
       </c>
       <c r="C25">
-        <v>15.40906897581561</v>
+        <v>10.61531658243931</v>
       </c>
       <c r="D25">
-        <v>10.77474816212314</v>
+        <v>14.34875531475586</v>
       </c>
       <c r="E25">
-        <v>10.21053281531048</v>
+        <v>15.09677742828761</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.19423883715031</v>
+        <v>62.3599436967169</v>
       </c>
       <c r="H25">
-        <v>18.77978424969348</v>
+        <v>21.91897445418082</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.095099669927302</v>
+        <v>8.902484533293695</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.1179254847597</v>
+        <v>20.5340950783101</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.77300618440172</v>
+        <v>20.57396319296947</v>
       </c>
       <c r="C2">
-        <v>10.21090539943208</v>
+        <v>14.00500730750892</v>
       </c>
       <c r="D2">
-        <v>14.32210881126316</v>
+        <v>10.31177457313229</v>
       </c>
       <c r="E2">
-        <v>15.10668373050767</v>
+        <v>9.953516924547417</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>61.3032098326869</v>
+        <v>64.68217749270066</v>
       </c>
       <c r="H2">
-        <v>21.81531885108973</v>
+        <v>17.97127535942621</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.925410521891838</v>
+        <v>5.141400981218047</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.41769206574797</v>
+        <v>16.01526665546287</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.45964905814496</v>
+        <v>19.090993293998</v>
       </c>
       <c r="C3">
-        <v>9.935730509800198</v>
+        <v>12.99389522538636</v>
       </c>
       <c r="D3">
-        <v>14.30993514697994</v>
+        <v>10.00649792614051</v>
       </c>
       <c r="E3">
-        <v>15.11845370845852</v>
+        <v>9.791983462263882</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.60837399812401</v>
+        <v>61.60532034195047</v>
       </c>
       <c r="H3">
-        <v>21.75340912045176</v>
+        <v>17.44035346941408</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.942316113811593</v>
+        <v>5.17538888977815</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.34929384773791</v>
+        <v>15.25828832245459</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.27077089761441</v>
+        <v>18.13629705236913</v>
       </c>
       <c r="C4">
-        <v>9.767037600487511</v>
+        <v>12.34254136546183</v>
       </c>
       <c r="D4">
-        <v>14.30536726644407</v>
+        <v>9.823366084339124</v>
       </c>
       <c r="E4">
-        <v>15.12816894143699</v>
+        <v>9.698758392195511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>60.1932914575972</v>
+        <v>59.7089263546427</v>
       </c>
       <c r="H4">
-        <v>21.71953317597767</v>
+        <v>17.1226532737671</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.95337378833463</v>
+        <v>5.197530907144247</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.31254709294975</v>
+        <v>14.78967546022561</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.19480542642261</v>
+        <v>17.73598158037614</v>
       </c>
       <c r="C5">
-        <v>9.698489044850357</v>
+        <v>12.06927852721418</v>
       </c>
       <c r="D5">
-        <v>14.30423717562784</v>
+        <v>9.749850545642825</v>
       </c>
       <c r="E5">
-        <v>15.1327528477662</v>
+        <v>9.662227658549103</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>60.027197844362</v>
+        <v>58.93484196021463</v>
       </c>
       <c r="H5">
-        <v>21.70677177876887</v>
+        <v>16.99527322253173</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.958050628361086</v>
+        <v>5.206872384203098</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.29890314649385</v>
+        <v>14.59794547228744</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.18225546863181</v>
+        <v>17.66882446669512</v>
       </c>
       <c r="C6">
-        <v>9.687122239305198</v>
+        <v>12.02342618207899</v>
       </c>
       <c r="D6">
-        <v>14.30409370059032</v>
+        <v>9.737711455955116</v>
       </c>
       <c r="E6">
-        <v>15.13355171433033</v>
+        <v>9.656248776424912</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>59.99980697753114</v>
+        <v>58.80624625248311</v>
       </c>
       <c r="H6">
-        <v>21.7047158416569</v>
+        <v>16.97424801034041</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.958837537646721</v>
+        <v>5.208442715335805</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.29671822329945</v>
+        <v>14.56606912700318</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.26974218131344</v>
+        <v>18.13094408935352</v>
       </c>
       <c r="C7">
-        <v>9.766112167379488</v>
+        <v>12.33888795008295</v>
       </c>
       <c r="D7">
-        <v>14.30534906418524</v>
+        <v>9.82237008314044</v>
       </c>
       <c r="E7">
-        <v>15.1282282327872</v>
+        <v>9.698259868008934</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>60.1910388933179</v>
+        <v>59.6984911961123</v>
       </c>
       <c r="H7">
-        <v>21.71935684383637</v>
+        <v>17.12092693024122</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.953436170003167</v>
+        <v>5.197655602387978</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.31235768554026</v>
+        <v>14.78709253532255</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.66430000732038</v>
+        <v>20.07168859588537</v>
       </c>
       <c r="C8">
-        <v>10.11604547394275</v>
+        <v>13.66261472925585</v>
       </c>
       <c r="D8">
-        <v>14.31730840452092</v>
+        <v>10.20563585975037</v>
       </c>
       <c r="E8">
-        <v>15.11022506917242</v>
+        <v>9.896559998271989</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.06132656648183</v>
+        <v>63.62303023808798</v>
       </c>
       <c r="H8">
-        <v>21.79311591484332</v>
+        <v>17.78649064637124</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.931099160207616</v>
+        <v>5.152854592557579</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.39302548359972</v>
+        <v>15.75515760408597</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.46080315368326</v>
+        <v>23.53618218568053</v>
       </c>
       <c r="C9">
-        <v>10.7990030673151</v>
+        <v>16.02390909873106</v>
       </c>
       <c r="D9">
-        <v>14.36378954189263</v>
+        <v>10.99062456778126</v>
       </c>
       <c r="E9">
-        <v>15.0946997335977</v>
+        <v>10.3345727287497</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>62.85260696429496</v>
+        <v>71.24847046665566</v>
       </c>
       <c r="H9">
-        <v>21.97040401039854</v>
+        <v>19.15817418156595</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.892656102707745</v>
+        <v>5.075198109670427</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.5923397006558</v>
+        <v>17.61706592314798</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.05300124764982</v>
+        <v>25.88815577692735</v>
       </c>
       <c r="C10">
-        <v>11.29205890546241</v>
+        <v>17.62775246824981</v>
       </c>
       <c r="D10">
-        <v>14.41190648218751</v>
+        <v>11.58767073611501</v>
       </c>
       <c r="E10">
-        <v>15.0953916201939</v>
+        <v>10.68932278817179</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>64.21054086203142</v>
+        <v>76.80477462279016</v>
       </c>
       <c r="H10">
-        <v>22.12026163968668</v>
+        <v>20.20929850917257</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.867656722053837</v>
+        <v>5.024522838422056</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.76303546693301</v>
+        <v>19.26114119752063</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.32252010933319</v>
+        <v>26.92005791860727</v>
       </c>
       <c r="C11">
-        <v>11.51319792532432</v>
+        <v>18.33202576650402</v>
       </c>
       <c r="D11">
-        <v>14.43680426214941</v>
+        <v>11.86404606847993</v>
       </c>
       <c r="E11">
-        <v>15.09833890839526</v>
+        <v>10.85867108406936</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>64.83525535811164</v>
+        <v>79.32642744078825</v>
       </c>
       <c r="H11">
-        <v>22.19260791223862</v>
+        <v>20.69814390973592</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.856983643494139</v>
+        <v>5.002901407977991</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.84575419257045</v>
+        <v>20.03206748807511</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.42448565929111</v>
+        <v>27.30572896369626</v>
       </c>
       <c r="C12">
-        <v>11.59638889517166</v>
+        <v>18.59537306884642</v>
       </c>
       <c r="D12">
-        <v>14.44666217844202</v>
+        <v>11.96944804948111</v>
       </c>
       <c r="E12">
-        <v>15.09983361792178</v>
+        <v>10.92402819236198</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>65.07264105272411</v>
+        <v>80.28111355890989</v>
       </c>
       <c r="H12">
-        <v>22.22059505293245</v>
+        <v>20.88495173487219</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.853042218859981</v>
+        <v>4.994924727063865</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.87778721868203</v>
+        <v>20.32028781504914</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.40253154922309</v>
+        <v>27.22288742649506</v>
       </c>
       <c r="C13">
-        <v>11.5784981141007</v>
+        <v>18.53880014792186</v>
       </c>
       <c r="D13">
-        <v>14.44452004360835</v>
+        <v>11.9467135020376</v>
       </c>
       <c r="E13">
-        <v>15.09949486623686</v>
+        <v>10.90989623111802</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>65.02148226188721</v>
+        <v>80.07550082272486</v>
       </c>
       <c r="H13">
-        <v>22.21454138561998</v>
+        <v>20.84464097893173</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.853886622005989</v>
+        <v>4.996633176800644</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.87085711449946</v>
+        <v>20.25837423938341</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.33091142030124</v>
+        <v>26.9518868977289</v>
       </c>
       <c r="C14">
-        <v>11.52005363112675</v>
+        <v>18.35375671464841</v>
       </c>
       <c r="D14">
-        <v>14.4376066867607</v>
+        <v>11.87270219656924</v>
       </c>
       <c r="E14">
-        <v>15.09845429081955</v>
+        <v>10.86402289702681</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>64.85476984490765</v>
+        <v>79.40496953276714</v>
       </c>
       <c r="H14">
-        <v>22.19489863930894</v>
+        <v>20.71347769174132</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.856657372976311</v>
+        <v>5.002240902378404</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.8483754712034</v>
+        <v>20.05585206490769</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.28702631873198</v>
+        <v>26.78524089378678</v>
       </c>
       <c r="C15">
-        <v>11.48418041956843</v>
+        <v>18.23998605771075</v>
       </c>
       <c r="D15">
-        <v>14.4334279132058</v>
+        <v>11.82746730794587</v>
       </c>
       <c r="E15">
-        <v>15.09786621710036</v>
+        <v>10.83608688826017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>64.75275498307667</v>
+        <v>78.99424646798089</v>
       </c>
       <c r="H15">
-        <v>22.18294358865947</v>
+        <v>20.63336237578113</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.858367582696305</v>
+        <v>5.00570342817454</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.83469657734598</v>
+        <v>19.93132761351329</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03538027117985</v>
+        <v>25.81998462877568</v>
       </c>
       <c r="C16">
-        <v>11.27753508159243</v>
+        <v>17.58124132806848</v>
       </c>
       <c r="D16">
-        <v>14.41033965579413</v>
+        <v>11.56970938209045</v>
       </c>
       <c r="E16">
-        <v>15.09525199235641</v>
+        <v>10.6784225412832</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>64.16983906314412</v>
+        <v>76.63990800258129</v>
       </c>
       <c r="H16">
-        <v>22.11561689159868</v>
+        <v>20.17757848567048</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.86836827682585</v>
+        <v>5.02596506011489</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.75772994630353</v>
+        <v>19.21022234015407</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.8809534281902</v>
+        <v>25.21834570000973</v>
       </c>
       <c r="C17">
-        <v>11.14988600864322</v>
+        <v>17.17083463475183</v>
       </c>
       <c r="D17">
-        <v>14.39694445367375</v>
+        <v>11.41283913504099</v>
       </c>
       <c r="E17">
-        <v>15.09432262121267</v>
+        <v>10.58379567432897</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>63.81389648893955</v>
+        <v>75.19444911693961</v>
       </c>
       <c r="H17">
-        <v>22.07537727946336</v>
+        <v>19.90080147286039</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.874682251919481</v>
+        <v>5.038764768842481</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.71179800409764</v>
+        <v>18.76089741100946</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.79214945713651</v>
+        <v>24.86869425549715</v>
       </c>
       <c r="C18">
-        <v>11.07617393007746</v>
+        <v>16.93237609398059</v>
       </c>
       <c r="D18">
-        <v>14.38952333446425</v>
+        <v>11.32305606316817</v>
       </c>
       <c r="E18">
-        <v>15.09403586591347</v>
+        <v>10.53011325291497</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>63.60983612190822</v>
+        <v>74.36244574012809</v>
       </c>
       <c r="H18">
-        <v>22.05262613134956</v>
+        <v>19.74260005025539</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.878379720116717</v>
+        <v>5.046261157532518</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.68585747880272</v>
+        <v>18.49980838902362</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.76208862723874</v>
+        <v>24.74967850609199</v>
       </c>
       <c r="C19">
-        <v>11.05116924481091</v>
+        <v>16.85121698175662</v>
       </c>
       <c r="D19">
-        <v>14.38705943835764</v>
+        <v>11.29273208945762</v>
       </c>
       <c r="E19">
-        <v>15.0939813290593</v>
+        <v>10.51206291827503</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>63.5408652036361</v>
+        <v>74.08062312977606</v>
       </c>
       <c r="H19">
-        <v>22.04499085194504</v>
+        <v>19.68920244965196</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.879642936491235</v>
+        <v>5.048822237792501</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.67715718962504</v>
+        <v>18.41094455389777</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.89739137542313</v>
+        <v>25.28276168450457</v>
       </c>
       <c r="C20">
-        <v>11.16350538237288</v>
+        <v>17.21476986647927</v>
       </c>
       <c r="D20">
-        <v>14.39834108072125</v>
+        <v>11.42949190068939</v>
       </c>
       <c r="E20">
-        <v>15.0943959074428</v>
+        <v>10.59379127354072</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>63.85171934441441</v>
+        <v>75.34838040424997</v>
       </c>
       <c r="H20">
-        <v>22.07962018124222</v>
+        <v>19.93016107795352</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.874003306937798</v>
+        <v>5.0373882809104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.71663817213086</v>
+        <v>18.80900093485468</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.3519514564508</v>
+        <v>27.03162109564489</v>
       </c>
       <c r="C21">
-        <v>11.53723583168221</v>
+        <v>18.408196689285</v>
       </c>
       <c r="D21">
-        <v>14.43962567275368</v>
+        <v>11.89442029947653</v>
       </c>
       <c r="E21">
-        <v>15.09874965725395</v>
+        <v>10.87746292201138</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>64.90371653872116</v>
+        <v>79.60191995859857</v>
       </c>
       <c r="H21">
-        <v>22.20065222389637</v>
+        <v>20.75195607765426</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.855840818294286</v>
+        <v>5.000588008423734</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.85495978836286</v>
+        <v>20.11543586682708</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.64842769947593</v>
+        <v>28.14516515846854</v>
       </c>
       <c r="C22">
-        <v>11.77824822081053</v>
+        <v>19.1688384558907</v>
       </c>
       <c r="D22">
-        <v>14.4691102337457</v>
+        <v>12.2026664667925</v>
       </c>
       <c r="E22">
-        <v>15.103801970521</v>
+        <v>11.07007131368895</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>65.59595144236559</v>
+        <v>82.3811433619762</v>
       </c>
       <c r="H22">
-        <v>22.28319455178505</v>
+        <v>21.29902593307956</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.844554706035828</v>
+        <v>4.977769229393999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.94948503038105</v>
+        <v>20.94779956925224</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.49028427473223</v>
+        <v>27.5533982617951</v>
       </c>
       <c r="C23">
-        <v>11.64994159494557</v>
+        <v>18.76452919200258</v>
       </c>
       <c r="D23">
-        <v>14.45314589672225</v>
+        <v>12.03772136208865</v>
       </c>
       <c r="E23">
-        <v>15.10090354626162</v>
+        <v>10.96658072968139</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>65.22612387820772</v>
+        <v>80.89759626825919</v>
       </c>
       <c r="H23">
-        <v>22.23882860776582</v>
+        <v>21.00606521847164</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.850524972102759</v>
+        <v>4.989833326547162</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.89866455741179</v>
+        <v>20.50540370034413</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.88995983910665</v>
+        <v>25.25365096114304</v>
       </c>
       <c r="C24">
-        <v>11.15734906821109</v>
+        <v>17.19491458886143</v>
       </c>
       <c r="D24">
-        <v>14.39770879339201</v>
+        <v>11.4219619317913</v>
       </c>
       <c r="E24">
-        <v>15.09436200367526</v>
+        <v>10.58927002701849</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>63.8346178241035</v>
+        <v>75.27879119724119</v>
       </c>
       <c r="H24">
-        <v>22.07770077126133</v>
+        <v>19.91688474174108</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.874310047755612</v>
+        <v>5.03801016268349</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.71444847808503</v>
+        <v>18.78726196992335</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.243607671195</v>
+        <v>22.63409400404509</v>
       </c>
       <c r="C25">
-        <v>10.61531658243931</v>
+        <v>15.40906897581587</v>
       </c>
       <c r="D25">
-        <v>14.34875531475586</v>
+        <v>10.7747481621232</v>
       </c>
       <c r="E25">
-        <v>15.09677742828761</v>
+        <v>10.21053281531056</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>62.3599436967169</v>
+        <v>69.19423883715031</v>
       </c>
       <c r="H25">
-        <v>21.91897445418082</v>
+        <v>18.77978424969345</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.902484533293695</v>
+        <v>5.095099669927359</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.5340950783101</v>
+        <v>17.11792548475971</v>
       </c>
       <c r="N25">
         <v>0</v>
